--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.03649355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03649355</v>
+        <v>2.43753139</v>
       </c>
       <c r="H2" t="n">
-        <v>2.43752867</v>
+        <v>166.85076695</v>
       </c>
       <c r="I2" t="n">
         <v>10.70030876225577</v>
@@ -548,10 +548,10 @@
         <v>0.00595759965851946</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00595759965851946</v>
+        <v>0.2808116673432284</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2808014304772844</v>
+        <v>36.96750933532022</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.01328216</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01328216</v>
+        <v>1.43362922</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43361427</v>
+        <v>159.68834131</v>
       </c>
       <c r="I3" t="n">
         <v>20.54511574026247</v>
@@ -595,10 +595,10 @@
         <v>0.004364981465893938</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004364981465893938</v>
+        <v>0.3857751479011183</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3857955182242908</v>
+        <v>50.99682913882356</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.05913336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02956677</v>
+        <v>1.26306222</v>
       </c>
       <c r="H4" t="n">
-        <v>1.26305738</v>
+        <v>56.55318427</v>
       </c>
       <c r="I4" t="n">
         <v>9.362185990810401</v>
@@ -642,10 +642,10 @@
         <v>0.01226222736415902</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006130963234050362</v>
+        <v>0.2686290274461385</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2686303462378282</v>
+        <v>21.46195678839939</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.02345232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01172611</v>
+        <v>0.730662</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7306667600000001</v>
+        <v>47.42466252</v>
       </c>
       <c r="I5" t="n">
         <v>13.47898093057954</v>
@@ -689,10 +689,10 @@
         <v>0.007110010004202515</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003554825586840071</v>
+        <v>0.1994292735205565</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1994424610828526</v>
+        <v>18.003032351658</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.08987537000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02246886</v>
+        <v>0.57986558</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5798639600000001</v>
+        <v>16.04977179</v>
       </c>
       <c r="I6" t="n">
         <v>7.052274709523061</v>
@@ -736,10 +736,10 @@
         <v>0.02422646867472739</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006056465477031507</v>
+        <v>0.1691694069141915</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1691658733007577</v>
+        <v>7.855137124474721</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.04167993</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01042005</v>
+        <v>0.34253878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3425376999999999</v>
+        <v>11.79694189</v>
       </c>
       <c r="I7" t="n">
         <v>7.236876977563485</v>
@@ -783,10 +783,10 @@
         <v>0.01283694598716445</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00320926110722614</v>
+        <v>0.09894841761271202</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09894955533306156</v>
+        <v>4.939485261636971</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.11697588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01949601</v>
+        <v>0.33216157</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33216153</v>
+        <v>6.24381025</v>
       </c>
       <c r="I8" t="n">
         <v>5.510876587328077</v>
@@ -830,10 +830,10 @@
         <v>0.03576328454080731</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005960542344866359</v>
+        <v>0.1163972933660317</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1163986264067944</v>
+        <v>3.833098956267941</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.05370543999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008951039999999999</v>
+        <v>0.19160893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19160614</v>
+        <v>4.31384833</v>
       </c>
       <c r="I9" t="n">
         <v>5.067369854000913</v>
@@ -877,10 +877,10 @@
         <v>0.01713749800420832</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002856333727133572</v>
+        <v>0.05772261005937939</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05771937602806764</v>
+        <v>1.920355393550123</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.13361642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01670206</v>
+        <v>0.20314113</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2031404</v>
+        <v>2.75909081</v>
       </c>
       <c r="I10" t="n">
         <v>4.21563311527018</v>
@@ -924,10 +924,10 @@
         <v>0.04635665570672578</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005794607737822746</v>
+        <v>0.08173785510263822</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08173684575143204</v>
+        <v>1.904877334205648</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.06052001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00756495</v>
+        <v>0.12062729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12062815</v>
+        <v>2.02756292</v>
       </c>
       <c r="I11" t="n">
         <v>3.815085041499583</v>
@@ -971,10 +971,10 @@
         <v>0.02042427893635342</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002553054775398716</v>
+        <v>0.04237322676056193</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04237310496177501</v>
+        <v>1.04764165607101</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.14286769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01428682</v>
+        <v>0.12852231</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12852234</v>
+        <v>1.31716232</v>
       </c>
       <c r="I12" t="n">
         <v>3.4813336070655</v>
@@ -1018,10 +1018,10 @@
         <v>0.05235601116461193</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00523562732450287</v>
+        <v>0.0569629458522298</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0569639097775209</v>
+        <v>0.9971903187449306</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.06636321000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00663647</v>
+        <v>0.08417903999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0841765</v>
+        <v>1.14681178</v>
       </c>
       <c r="I13" t="n">
         <v>3.636637063157269</v>
@@ -1065,10 +1065,10 @@
         <v>0.02491459379118351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002491394526321712</v>
+        <v>0.03254535661374008</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03254479483759302</v>
+        <v>0.6719166098999868</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>68.083</v>
+        <v>66.334</v>
       </c>
       <c r="D2" t="n">
-        <v>68.083</v>
+        <v>66.334</v>
       </c>
       <c r="E2" t="n">
-        <v>2.544271</v>
+        <v>2.61336138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03649355</v>
+        <v>0.007458129999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2.43753139</v>
+        <v>0.48770223</v>
       </c>
       <c r="H2" t="n">
-        <v>166.85076695</v>
+        <v>32.71349691</v>
       </c>
       <c r="I2" t="n">
-        <v>10.70030876225577</v>
+        <v>10.59484283482746</v>
       </c>
       <c r="J2" t="n">
-        <v>10.70030876225577</v>
+        <v>10.59484283482746</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4016799763009867</v>
+        <v>0.4200334952196099</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00595759965851946</v>
+        <v>0.000961669283543418</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2808116673432284</v>
+        <v>0.05544099550973278</v>
       </c>
       <c r="N2" t="n">
-        <v>36.96750933532022</v>
+        <v>8.118351175721624</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>111.861</v>
+        <v>111.812</v>
       </c>
       <c r="D3" t="n">
-        <v>111.861</v>
+        <v>111.812</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5602912</v>
+        <v>1.56395727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01328216</v>
+        <v>0.00327679</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43362922</v>
+        <v>0.3584990199999999</v>
       </c>
       <c r="H3" t="n">
-        <v>159.68834131</v>
+        <v>40.57860195</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54511574026247</v>
+        <v>21.30061906077784</v>
       </c>
       <c r="J3" t="n">
-        <v>20.54511574026247</v>
+        <v>21.30061906077784</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2781220311679407</v>
+        <v>0.2855045774280677</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004364981465893938</v>
+        <v>0.0008370201901380269</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3857751479011183</v>
+        <v>0.08407043989121922</v>
       </c>
       <c r="N3" t="n">
-        <v>50.99682913882356</v>
+        <v>13.9042836686778</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.682</v>
+        <v>44.876</v>
       </c>
       <c r="D4" t="n">
-        <v>87.333</v>
+        <v>89.711</v>
       </c>
       <c r="E4" t="n">
-        <v>2.03053143</v>
+        <v>1.98572922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05913336</v>
+        <v>0.01286585</v>
       </c>
       <c r="G4" t="n">
-        <v>1.26306222</v>
+        <v>0.28449185</v>
       </c>
       <c r="H4" t="n">
-        <v>56.55318427</v>
+        <v>13.22304504</v>
       </c>
       <c r="I4" t="n">
-        <v>9.362185990810401</v>
+        <v>9.979690286688172</v>
       </c>
       <c r="J4" t="n">
-        <v>18.71818584910091</v>
+        <v>19.95855262344499</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4642150590878532</v>
+        <v>0.4779556440546291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01226222736415902</v>
+        <v>0.002083452291498644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2686290274461385</v>
+        <v>0.0625861210735138</v>
       </c>
       <c r="N4" t="n">
-        <v>21.46195678839939</v>
+        <v>5.44044955023412</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>64.23399999999999</v>
+        <v>64.01300000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>125.126</v>
+        <v>124.812</v>
       </c>
       <c r="E5" t="n">
-        <v>1.40195204</v>
+        <v>1.39916202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02345232</v>
+        <v>0.0061942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.730662</v>
+        <v>0.19510707</v>
       </c>
       <c r="H5" t="n">
-        <v>47.42466252</v>
+        <v>12.74446728</v>
       </c>
       <c r="I5" t="n">
-        <v>13.47898093057954</v>
+        <v>12.43710225544972</v>
       </c>
       <c r="J5" t="n">
-        <v>24.51197586815394</v>
+        <v>22.62429036488249</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2722870789935233</v>
+        <v>0.2565288253146943</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007110010004202515</v>
+        <v>0.001290392061224677</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1994292735205565</v>
+        <v>0.04281632394673101</v>
       </c>
       <c r="N5" t="n">
-        <v>18.003032351658</v>
+        <v>4.573077103208242</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>26.534</v>
+        <v>26.103</v>
       </c>
       <c r="D6" t="n">
-        <v>106.043</v>
+        <v>104.304</v>
       </c>
       <c r="E6" t="n">
-        <v>1.71941038</v>
+        <v>1.75244385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08987537000000001</v>
+        <v>0.02182721</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57986558</v>
+        <v>0.14077328</v>
       </c>
       <c r="H6" t="n">
-        <v>16.04977179</v>
+        <v>3.90214375</v>
       </c>
       <c r="I6" t="n">
-        <v>7.052274709523061</v>
+        <v>7.024794569148534</v>
       </c>
       <c r="J6" t="n">
-        <v>28.20167522480687</v>
+        <v>28.08837020085965</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5120787498368684</v>
+        <v>0.5260207542958999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02422646867472739</v>
+        <v>0.004014096247548704</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1691694069141915</v>
+        <v>0.04027511750860489</v>
       </c>
       <c r="N6" t="n">
-        <v>7.855137124474721</v>
+        <v>2.036979954913046</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.772</v>
+        <v>33.575</v>
       </c>
       <c r="D7" t="n">
-        <v>124.646</v>
+        <v>124.614</v>
       </c>
       <c r="E7" t="n">
-        <v>1.41171462</v>
+        <v>1.41354863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04167993</v>
+        <v>0.01192575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34253878</v>
+        <v>0.0986142</v>
       </c>
       <c r="H7" t="n">
-        <v>11.79694189</v>
+        <v>3.42103651</v>
       </c>
       <c r="I7" t="n">
-        <v>7.236876977563485</v>
+        <v>7.397776835110809</v>
       </c>
       <c r="J7" t="n">
-        <v>24.81004276945572</v>
+        <v>25.31161159787503</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2944564138243518</v>
+        <v>0.2954796991036872</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01283694598716445</v>
+        <v>0.002713180677154931</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09894841761271202</v>
+        <v>0.02567685665590178</v>
       </c>
       <c r="N7" t="n">
-        <v>4.939485261636971</v>
+        <v>1.519794786646947</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17.603</v>
+        <v>17.301</v>
       </c>
       <c r="D8" t="n">
-        <v>105.499</v>
+        <v>103.699</v>
       </c>
       <c r="E8" t="n">
-        <v>1.77558638</v>
+        <v>1.80872041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11697588</v>
+        <v>0.03037105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.33216157</v>
+        <v>0.08652232000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>6.24381025</v>
+        <v>1.62807922</v>
       </c>
       <c r="I8" t="n">
-        <v>5.510876587328077</v>
+        <v>5.442243748401665</v>
       </c>
       <c r="J8" t="n">
-        <v>33.03291044053145</v>
+        <v>32.63524871145398</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6032088330422191</v>
+        <v>0.613659465247151</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03576328454080731</v>
+        <v>0.006752611299109171</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1163972933660317</v>
+        <v>0.02998056304638354</v>
       </c>
       <c r="N8" t="n">
-        <v>3.833098956267941</v>
+        <v>1.019980528351894</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22.021</v>
+        <v>22.043</v>
       </c>
       <c r="D9" t="n">
-        <v>113.203</v>
+        <v>113.324</v>
       </c>
       <c r="E9" t="n">
-        <v>1.55382475</v>
+        <v>1.55821096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05370543999999999</v>
+        <v>0.01586193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.19160893</v>
+        <v>0.05736815</v>
       </c>
       <c r="H9" t="n">
-        <v>4.31384833</v>
+        <v>1.31241925</v>
       </c>
       <c r="I9" t="n">
-        <v>5.067369854000913</v>
+        <v>5.069995646532239</v>
       </c>
       <c r="J9" t="n">
-        <v>23.00341165888112</v>
+        <v>23.5688462703314</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3122680150703454</v>
+        <v>0.3349562838341122</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01713749800420832</v>
+        <v>0.003649305496352108</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05772261005937939</v>
+        <v>0.01552996932465498</v>
       </c>
       <c r="N9" t="n">
-        <v>1.920355393550123</v>
+        <v>0.6119261487629675</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12.547</v>
+        <v>12.461</v>
       </c>
       <c r="D10" t="n">
-        <v>100.243</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1.88486099</v>
+        <v>1.91079858</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13361642</v>
+        <v>0.03441491000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.20314113</v>
+        <v>0.05320871</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75909081</v>
+        <v>0.7386829799999999</v>
       </c>
       <c r="I10" t="n">
-        <v>4.21563311527018</v>
+        <v>4.290324683038089</v>
       </c>
       <c r="J10" t="n">
-        <v>33.70180652076031</v>
+        <v>34.28038863614363</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6493619992913379</v>
+        <v>0.6894536043448665</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04635665570672578</v>
+        <v>0.00737419948264962</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08173785510263822</v>
+        <v>0.02058499628146208</v>
       </c>
       <c r="N10" t="n">
-        <v>1.904877334205648</v>
+        <v>0.5517653478985983</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16.291</v>
+        <v>16.209</v>
       </c>
       <c r="D11" t="n">
-        <v>101.851</v>
+        <v>100.493</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73178109</v>
+        <v>1.75045176</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06052001</v>
+        <v>0.01833839</v>
       </c>
       <c r="G11" t="n">
-        <v>0.12062729</v>
+        <v>0.03641956</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02756292</v>
+        <v>0.61289786</v>
       </c>
       <c r="I11" t="n">
-        <v>3.815085041499583</v>
+        <v>3.988888345169645</v>
       </c>
       <c r="J11" t="n">
-        <v>21.48069410468896</v>
+        <v>20.69807627199594</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3587740429055238</v>
+        <v>0.3487761036105429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02042427893635342</v>
+        <v>0.004521547223815891</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04237322676056193</v>
+        <v>0.01022278953281502</v>
       </c>
       <c r="N11" t="n">
-        <v>1.04764165607101</v>
+        <v>0.3008847876647613</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.294</v>
+        <v>9.282</v>
       </c>
       <c r="D12" t="n">
-        <v>92.69799999999999</v>
+        <v>92.58499999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>2.08570867</v>
+        <v>2.06003375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14286769</v>
+        <v>0.03969014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12852231</v>
+        <v>0.03658754</v>
       </c>
       <c r="H12" t="n">
-        <v>1.31716232</v>
+        <v>0.37911152</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4813336070655</v>
+        <v>3.282567783192184</v>
       </c>
       <c r="J12" t="n">
-        <v>34.75397293309982</v>
+        <v>32.76263367260277</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7756723040525587</v>
+        <v>0.7347914006938098</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05235601116461193</v>
+        <v>0.008909707720911616</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0569629458522298</v>
+        <v>0.01425929407846041</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9971903187449306</v>
+        <v>0.2792872139837131</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>13.064</v>
+        <v>12.936</v>
       </c>
       <c r="D13" t="n">
-        <v>91.355</v>
+        <v>89.84</v>
       </c>
       <c r="E13" t="n">
-        <v>1.93561348</v>
+        <v>1.96628306</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06636321000000001</v>
+        <v>0.02040392</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08417903999999998</v>
+        <v>0.02591663</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14681178</v>
+        <v>0.35126333</v>
       </c>
       <c r="I13" t="n">
-        <v>3.636637063157269</v>
+        <v>3.387828416756282</v>
       </c>
       <c r="J13" t="n">
-        <v>19.89439020834169</v>
+        <v>19.43852505351824</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4097245746312349</v>
+        <v>0.4124571842915458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02491459379118351</v>
+        <v>0.005501379718980723</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03254535661374008</v>
+        <v>0.008305930436954281</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6719166098999868</v>
+        <v>0.1936688846565064</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>66.334</v>
+        <v>65.13500000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>66.334</v>
+        <v>65.13500000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.61336138</v>
+        <v>2.65552286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007458129999999999</v>
+        <v>0.00638267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.48770223</v>
+        <v>0.40896793</v>
       </c>
       <c r="H2" t="n">
-        <v>32.71349691</v>
+        <v>26.81933161</v>
       </c>
       <c r="I2" t="n">
-        <v>10.59484283482746</v>
+        <v>9.882126867806921</v>
       </c>
       <c r="J2" t="n">
-        <v>10.59484283482746</v>
+        <v>9.882126867806921</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4200334952196099</v>
+        <v>0.4098975460207761</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000961669283543418</v>
+        <v>0.001314625197731471</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05544099550973278</v>
+        <v>0.0699948853230469</v>
       </c>
       <c r="N2" t="n">
-        <v>8.118351175721624</v>
+        <v>6.839346901840893</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>111.812</v>
+        <v>111.549</v>
       </c>
       <c r="D3" t="n">
-        <v>111.812</v>
+        <v>111.549</v>
       </c>
       <c r="E3" t="n">
-        <v>1.56395727</v>
+        <v>1.56725154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00327679</v>
+        <v>0.0025236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3584990199999999</v>
+        <v>0.27170185</v>
       </c>
       <c r="H3" t="n">
-        <v>40.57860195</v>
+        <v>30.24882202</v>
       </c>
       <c r="I3" t="n">
-        <v>21.30061906077784</v>
+        <v>21.52526273790719</v>
       </c>
       <c r="J3" t="n">
-        <v>21.30061906077784</v>
+        <v>21.52526273790719</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2855045774280677</v>
+        <v>0.2823447014375482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008370201901380269</v>
+        <v>0.0008076659980241612</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08407043989121922</v>
+        <v>0.07151565521491303</v>
       </c>
       <c r="N3" t="n">
-        <v>13.9042836686778</v>
+        <v>9.985612663913578</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>44.876</v>
+        <v>42.358</v>
       </c>
       <c r="D4" t="n">
-        <v>89.711</v>
+        <v>84.68600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.98572922</v>
+        <v>2.10920756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01286585</v>
+        <v>0.01012117</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28449185</v>
+        <v>0.20770927</v>
       </c>
       <c r="H4" t="n">
-        <v>13.22304504</v>
+        <v>8.987111659999998</v>
       </c>
       <c r="I4" t="n">
-        <v>9.979690286688172</v>
+        <v>9.661220170101455</v>
       </c>
       <c r="J4" t="n">
-        <v>19.95855262344499</v>
+        <v>19.31570605751963</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4779556440546291</v>
+        <v>0.5210583274160543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002083452291498644</v>
+        <v>0.00217636336317918</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0625861210735138</v>
+        <v>0.04012654648109652</v>
       </c>
       <c r="N4" t="n">
-        <v>5.44044955023412</v>
+        <v>3.256796629911522</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>64.01300000000001</v>
+        <v>64.194</v>
       </c>
       <c r="D5" t="n">
-        <v>124.812</v>
+        <v>125.013</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39916202</v>
+        <v>1.39997725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0061942</v>
+        <v>0.00471593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.19510707</v>
+        <v>0.14674244</v>
       </c>
       <c r="H5" t="n">
-        <v>12.74446728</v>
+        <v>9.49293346</v>
       </c>
       <c r="I5" t="n">
-        <v>12.43710225544972</v>
+        <v>13.00813497683567</v>
       </c>
       <c r="J5" t="n">
-        <v>22.62429036488249</v>
+        <v>23.22611210003265</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2565288253146943</v>
+        <v>0.2687227255614431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001290392061224677</v>
+        <v>0.001483955882147498</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04281632394673101</v>
+        <v>0.04011667138197247</v>
       </c>
       <c r="N5" t="n">
-        <v>4.573077103208242</v>
+        <v>3.44288405865803</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>26.103</v>
+        <v>25.737</v>
       </c>
       <c r="D6" t="n">
-        <v>104.304</v>
+        <v>102.866</v>
       </c>
       <c r="E6" t="n">
-        <v>1.75244385</v>
+        <v>1.77775795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02182721</v>
+        <v>0.01591173</v>
       </c>
       <c r="G6" t="n">
-        <v>0.14077328</v>
+        <v>0.09935664</v>
       </c>
       <c r="H6" t="n">
-        <v>3.90214375</v>
+        <v>2.67377001</v>
       </c>
       <c r="I6" t="n">
-        <v>7.024794569148534</v>
+        <v>7.126894388415169</v>
       </c>
       <c r="J6" t="n">
-        <v>28.08837020085965</v>
+        <v>28.49712494498577</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5260207542958999</v>
+        <v>0.5219397470318093</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004014096247548704</v>
+        <v>0.004499511140958271</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04027511750860489</v>
+        <v>0.03063395816252126</v>
       </c>
       <c r="N6" t="n">
-        <v>2.036979954913046</v>
+        <v>1.376432091603249</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.575</v>
+        <v>34.39</v>
       </c>
       <c r="D7" t="n">
-        <v>124.614</v>
+        <v>126.456</v>
       </c>
       <c r="E7" t="n">
-        <v>1.41354863</v>
+        <v>1.38925213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01192575</v>
+        <v>0.008069079999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0986142</v>
+        <v>0.06744921999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3.42103651</v>
+        <v>2.36027697</v>
       </c>
       <c r="I7" t="n">
-        <v>7.397776835110809</v>
+        <v>7.406669883203838</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31161159787503</v>
+        <v>24.60344271425024</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2954796991036872</v>
+        <v>0.2816911078532773</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002713180677154931</v>
+        <v>0.002212040523335158</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02567685665590178</v>
+        <v>0.01694856043717261</v>
       </c>
       <c r="N7" t="n">
-        <v>1.519794786646947</v>
+        <v>0.9204318390499407</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17.301</v>
+        <v>17.576</v>
       </c>
       <c r="D8" t="n">
-        <v>103.699</v>
+        <v>105.307</v>
       </c>
       <c r="E8" t="n">
-        <v>1.80872041</v>
+        <v>1.79116768</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03037105</v>
+        <v>0.02023423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08652232000000001</v>
+        <v>0.05714994</v>
       </c>
       <c r="H8" t="n">
-        <v>1.62807922</v>
+        <v>1.07914325</v>
       </c>
       <c r="I8" t="n">
-        <v>5.442243748401665</v>
+        <v>5.845031085322677</v>
       </c>
       <c r="J8" t="n">
-        <v>32.63524871145398</v>
+        <v>35.01292126709303</v>
       </c>
       <c r="K8" t="n">
-        <v>0.613659465247151</v>
+        <v>0.6156535921317461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006752611299109171</v>
+        <v>0.006628597703482586</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02998056304638354</v>
+        <v>0.02103901701680555</v>
       </c>
       <c r="N8" t="n">
-        <v>1.019980528351894</v>
+        <v>0.7032740785929468</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22.043</v>
+        <v>22.651</v>
       </c>
       <c r="D9" t="n">
-        <v>113.324</v>
+        <v>116.014</v>
       </c>
       <c r="E9" t="n">
-        <v>1.55821096</v>
+        <v>1.5195438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01586193</v>
+        <v>0.01131364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736815</v>
+        <v>0.04170462</v>
       </c>
       <c r="H9" t="n">
-        <v>1.31241925</v>
+        <v>0.9718632</v>
       </c>
       <c r="I9" t="n">
-        <v>5.069995646532239</v>
+        <v>5.202717296496829</v>
       </c>
       <c r="J9" t="n">
-        <v>23.5688462703314</v>
+        <v>23.9911103823349</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3349562838341122</v>
+        <v>0.3162163444847202</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003649305496352108</v>
+        <v>0.00348032530298744</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01552996932465498</v>
+        <v>0.01301746547769815</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6119261487629675</v>
+        <v>0.4624244537393932</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12.461</v>
+        <v>13.279</v>
       </c>
       <c r="D10" t="n">
-        <v>99.51000000000001</v>
+        <v>106.027</v>
       </c>
       <c r="E10" t="n">
-        <v>1.91079858</v>
+        <v>1.80481392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03441491000000001</v>
+        <v>0.02214199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05320871</v>
+        <v>0.0354577</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7386829799999999</v>
+        <v>0.51102201</v>
       </c>
       <c r="I10" t="n">
-        <v>4.290324683038089</v>
+        <v>4.611336403194136</v>
       </c>
       <c r="J10" t="n">
-        <v>34.28038863614363</v>
+        <v>36.83388393865091</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6894536043448665</v>
+        <v>0.6766637493802656</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00737419948264962</v>
+        <v>0.007590792769847875</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02058499628146208</v>
+        <v>0.01413135320673337</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5517653478985983</v>
+        <v>0.3517711518190655</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16.209</v>
+        <v>16.439</v>
       </c>
       <c r="D11" t="n">
-        <v>100.493</v>
+        <v>102.816</v>
       </c>
       <c r="E11" t="n">
-        <v>1.75045176</v>
+        <v>1.72266275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01833839</v>
+        <v>0.01285501</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03641956</v>
+        <v>0.02577802</v>
       </c>
       <c r="H11" t="n">
-        <v>0.61289786</v>
+        <v>0.4382587099999999</v>
       </c>
       <c r="I11" t="n">
-        <v>3.988888345169645</v>
+        <v>4.040371716018663</v>
       </c>
       <c r="J11" t="n">
-        <v>20.69807627199594</v>
+        <v>22.76608087568957</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3487761036105429</v>
+        <v>0.3718583440531885</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004521547223815891</v>
+        <v>0.003959105924273764</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01022278953281502</v>
+        <v>0.008166565353272407</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3008847876647613</v>
+        <v>0.2145351145855292</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.282</v>
+        <v>10.123</v>
       </c>
       <c r="D12" t="n">
-        <v>92.58499999999999</v>
+        <v>101.044</v>
       </c>
       <c r="E12" t="n">
-        <v>2.06003375</v>
+        <v>1.91592889</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03969014</v>
+        <v>0.02498578</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03658754</v>
+        <v>0.02418259</v>
       </c>
       <c r="H12" t="n">
-        <v>0.37911152</v>
+        <v>0.26764387</v>
       </c>
       <c r="I12" t="n">
-        <v>3.282567783192184</v>
+        <v>3.756325462600516</v>
       </c>
       <c r="J12" t="n">
-        <v>32.76263367260277</v>
+        <v>37.58021203155108</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7347914006938098</v>
+        <v>0.7386340800974114</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008909707720911616</v>
+        <v>0.008863485746091724</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01425929407846041</v>
+        <v>0.009957136453732982</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2792872139837131</v>
+        <v>0.2000475682708845</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.936</v>
+        <v>12.954</v>
       </c>
       <c r="D13" t="n">
-        <v>89.84</v>
+        <v>91.63500000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>1.96628306</v>
+        <v>1.93368706</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02040392</v>
+        <v>0.0143713</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02591663</v>
+        <v>0.0182102</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35126333</v>
+        <v>0.24611213</v>
       </c>
       <c r="I13" t="n">
-        <v>3.387828416756282</v>
+        <v>3.3608301324493</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43852505351824</v>
+        <v>20.58882402359772</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4124571842915458</v>
+        <v>0.4181174380136848</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005501379718980723</v>
+        <v>0.004688753984154417</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008305930436954281</v>
+        <v>0.006375824958693887</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1936688846565064</v>
+        <v>0.1400917751533927</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65.13500000000001</v>
+        <v>65.01600000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>65.13500000000001</v>
+        <v>65.01600000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.65552286</v>
+        <v>2.65640079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00638267</v>
+        <v>0.0006583399999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.40896793</v>
+        <v>0.04264630000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>26.81933161</v>
+        <v>2.8224482</v>
       </c>
       <c r="I2" t="n">
-        <v>9.882126867806921</v>
+        <v>9.558719219284198</v>
       </c>
       <c r="J2" t="n">
-        <v>9.882126867806921</v>
+        <v>9.558719219284198</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4098975460207761</v>
+        <v>0.395088426762209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001314625197731471</v>
+        <v>7.814186170389435e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0699948853230469</v>
+        <v>0.007085029834641331</v>
       </c>
       <c r="N2" t="n">
-        <v>6.839346901840893</v>
+        <v>0.8247088289406709</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>111.549</v>
+        <v>111.411</v>
       </c>
       <c r="D3" t="n">
-        <v>111.549</v>
+        <v>111.411</v>
       </c>
       <c r="E3" t="n">
-        <v>1.56725154</v>
+        <v>1.56493938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0025236</v>
+        <v>0.0004032900000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27170185</v>
+        <v>0.04468881</v>
       </c>
       <c r="H3" t="n">
-        <v>30.24882202</v>
+        <v>5.112078170000001</v>
       </c>
       <c r="I3" t="n">
-        <v>21.52526273790719</v>
+        <v>20.24381117504535</v>
       </c>
       <c r="J3" t="n">
-        <v>21.52526273790719</v>
+        <v>20.24381117504535</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2823447014375482</v>
+        <v>0.2746311276630839</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008076659980241612</v>
+        <v>4.751982779886764e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07151565521491303</v>
+        <v>0.008309330734852306</v>
       </c>
       <c r="N3" t="n">
-        <v>9.985612663913578</v>
+        <v>1.851909330208276</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>42.358</v>
+        <v>42.202</v>
       </c>
       <c r="D4" t="n">
-        <v>84.68600000000001</v>
+        <v>84.374</v>
       </c>
       <c r="E4" t="n">
-        <v>2.10920756</v>
+        <v>2.11203137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01012117</v>
+        <v>0.00134037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.20770927</v>
+        <v>0.02806220000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>8.987111659999998</v>
+        <v>1.23351562</v>
       </c>
       <c r="I4" t="n">
-        <v>9.661220170101455</v>
+        <v>9.355999718401595</v>
       </c>
       <c r="J4" t="n">
-        <v>19.31570605751963</v>
+        <v>18.69913853047198</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5210583274160543</v>
+        <v>0.5171385935415701</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00217636336317918</v>
+        <v>0.0001359707731505236</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04012654648109652</v>
+        <v>0.005912061944570307</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256796629911522</v>
+        <v>0.5107474579666893</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>64.194</v>
+        <v>64.185</v>
       </c>
       <c r="D5" t="n">
-        <v>125.013</v>
+        <v>125.068</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39997725</v>
+        <v>1.39943506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00471593</v>
+        <v>0.00084256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.14674244</v>
+        <v>0.02686643</v>
       </c>
       <c r="H5" t="n">
-        <v>9.49293346</v>
+        <v>1.78094903</v>
       </c>
       <c r="I5" t="n">
-        <v>13.00813497683567</v>
+        <v>12.74563557560886</v>
       </c>
       <c r="J5" t="n">
-        <v>23.22611210003265</v>
+        <v>23.19653973021527</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2687227255614431</v>
+        <v>0.2700096485585489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001483955882147498</v>
+        <v>0.0001091410012697252</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04011667138197247</v>
+        <v>0.005545948403907018</v>
       </c>
       <c r="N5" t="n">
-        <v>3.44288405865803</v>
+        <v>0.6976701909553732</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.737</v>
+        <v>25.863</v>
       </c>
       <c r="D6" t="n">
-        <v>102.866</v>
+        <v>103.36</v>
       </c>
       <c r="E6" t="n">
-        <v>1.77775795</v>
+        <v>1.76239613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01591173</v>
+        <v>0.0027586</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09935664</v>
+        <v>0.0177257</v>
       </c>
       <c r="H6" t="n">
-        <v>2.67377001</v>
+        <v>0.48852123</v>
       </c>
       <c r="I6" t="n">
-        <v>7.126894388415169</v>
+        <v>6.918243497672882</v>
       </c>
       <c r="J6" t="n">
-        <v>28.49712494498577</v>
+        <v>27.65862251449626</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5219397470318093</v>
+        <v>0.5116546991245751</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004499511140958271</v>
+        <v>0.0002923369646502147</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03063395816252126</v>
+        <v>0.004716807987144228</v>
       </c>
       <c r="N6" t="n">
-        <v>1.376432091603249</v>
+        <v>0.2575916055772217</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>34.39</v>
+        <v>34.198</v>
       </c>
       <c r="D7" t="n">
-        <v>126.456</v>
+        <v>125.683</v>
       </c>
       <c r="E7" t="n">
-        <v>1.38925213</v>
+        <v>1.4016614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008069079999999999</v>
+        <v>0.00177757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06744921999999999</v>
+        <v>0.01510953</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36027697</v>
+        <v>0.53868211</v>
       </c>
       <c r="I7" t="n">
-        <v>7.406669883203838</v>
+        <v>7.516468139578142</v>
       </c>
       <c r="J7" t="n">
-        <v>24.60344271425024</v>
+        <v>25.61934546123031</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2816911078532773</v>
+        <v>0.2915120878691205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002212040523335158</v>
+        <v>0.0002290896706034062</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01694856043717261</v>
+        <v>0.003527867561095318</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9204318390499407</v>
+        <v>0.2393767752610564</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17.576</v>
+        <v>17.736</v>
       </c>
       <c r="D8" t="n">
-        <v>105.307</v>
+        <v>106.237</v>
       </c>
       <c r="E8" t="n">
-        <v>1.79116768</v>
+        <v>1.76099322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02023423</v>
+        <v>0.00433683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05714994</v>
+        <v>0.0127027</v>
       </c>
       <c r="H8" t="n">
-        <v>1.07914325</v>
+        <v>0.24554356</v>
       </c>
       <c r="I8" t="n">
-        <v>5.845031085322677</v>
+        <v>5.563924987026808</v>
       </c>
       <c r="J8" t="n">
-        <v>35.01292126709303</v>
+        <v>33.34160304324754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6156535921317461</v>
+        <v>0.5950308720627353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006628597703482586</v>
+        <v>0.000511768656971349</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02103901701680555</v>
+        <v>0.003893556175232315</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7032740785929468</v>
+        <v>0.1530169136507125</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22.651</v>
+        <v>22.335</v>
       </c>
       <c r="D9" t="n">
-        <v>116.014</v>
+        <v>114.255</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5195438</v>
+        <v>1.54139866</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01131364</v>
+        <v>0.00273074</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04170462</v>
+        <v>0.01005951</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9718632</v>
+        <v>0.23449934</v>
       </c>
       <c r="I9" t="n">
-        <v>5.202717296496829</v>
+        <v>5.201906846035868</v>
       </c>
       <c r="J9" t="n">
-        <v>23.9911103823349</v>
+        <v>23.48747829454317</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3162163444847202</v>
+        <v>0.3161308627061897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00348032530298744</v>
+        <v>0.0003877987109832113</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01301746547769815</v>
+        <v>0.002342197461540946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4624244537393932</v>
+        <v>0.1120015352352791</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.279</v>
+        <v>12.944</v>
       </c>
       <c r="D10" t="n">
-        <v>106.027</v>
+        <v>103.422</v>
       </c>
       <c r="E10" t="n">
-        <v>1.80481392</v>
+        <v>1.84404614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02214199</v>
+        <v>0.005592629999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0354577</v>
+        <v>0.008965979999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0.51102201</v>
+        <v>0.12878856</v>
       </c>
       <c r="I10" t="n">
-        <v>4.611336403194136</v>
+        <v>4.454065861962832</v>
       </c>
       <c r="J10" t="n">
-        <v>36.83388393865091</v>
+        <v>35.63913669077948</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6766637493802656</v>
+        <v>0.6722085495871341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007590792769847875</v>
+        <v>0.0005716640472190664</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01413135320673337</v>
+        <v>0.002968582308193681</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3517711518190655</v>
+        <v>0.08826241086951397</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16.439</v>
+        <v>16.31</v>
       </c>
       <c r="D11" t="n">
-        <v>102.816</v>
+        <v>102.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.72266275</v>
+        <v>1.72702627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01285501</v>
+        <v>0.0034409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02577802</v>
+        <v>0.006950700000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4382587099999999</v>
+        <v>0.11836115</v>
       </c>
       <c r="I11" t="n">
-        <v>4.040371716018663</v>
+        <v>3.784735687498431</v>
       </c>
       <c r="J11" t="n">
-        <v>22.76608087568957</v>
+        <v>21.30647708951355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3718583440531885</v>
+        <v>0.3563532894379963</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003959105924273764</v>
+        <v>0.0004999090908346227</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008166565353272407</v>
+        <v>0.001647232978812192</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2145351145855292</v>
+        <v>0.05358529320835826</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.123</v>
+        <v>10.098</v>
       </c>
       <c r="D12" t="n">
-        <v>101.044</v>
+        <v>100.786</v>
       </c>
       <c r="E12" t="n">
-        <v>1.91592889</v>
+        <v>1.91720592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02498578</v>
+        <v>0.00719583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02418259</v>
+        <v>0.007192019999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.26764387</v>
+        <v>0.08168604</v>
       </c>
       <c r="I12" t="n">
-        <v>3.756325462600516</v>
+        <v>3.729920683916524</v>
       </c>
       <c r="J12" t="n">
-        <v>37.58021203155108</v>
+        <v>37.29752417130806</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7386340800974114</v>
+        <v>0.7325737882595844</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008863485746091724</v>
+        <v>0.0007832487406243879</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009957136453732982</v>
+        <v>0.002532487356693378</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2000475682708845</v>
+        <v>0.06092564508109</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.954</v>
+        <v>13.192</v>
       </c>
       <c r="D13" t="n">
-        <v>91.63500000000001</v>
+        <v>91.884</v>
       </c>
       <c r="E13" t="n">
-        <v>1.93368706</v>
+        <v>1.92569394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0143713</v>
+        <v>0.00409328</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0182102</v>
+        <v>0.005331300000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24611213</v>
+        <v>0.07385673</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3608301324493</v>
+        <v>3.369048305751416</v>
       </c>
       <c r="J13" t="n">
-        <v>20.58882402359772</v>
+        <v>20.13559003322192</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4181174380136848</v>
+        <v>0.4130035035071562</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004688753984154417</v>
+        <v>0.0007117063773548524</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006375824958693887</v>
+        <v>0.001385306964317073</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1400917751533927</v>
+        <v>0.03724574927217798</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>68.083</v>
+        <v>65.01600000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>68.083</v>
+        <v>65.01600000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.544271</v>
+        <v>2.65640079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03649355</v>
+        <v>0.0006583399999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2.43753139</v>
+        <v>0.04264630000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>166.85076695</v>
+        <v>2.8224482</v>
       </c>
       <c r="I2" t="n">
-        <v>10.70030876225577</v>
+        <v>9.558719219284198</v>
       </c>
       <c r="J2" t="n">
-        <v>10.70030876225577</v>
+        <v>9.558719219284198</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4016799763009867</v>
+        <v>0.395088426762209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00595759965851946</v>
+        <v>7.814186170389435e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2808116673432284</v>
+        <v>0.007085029834641331</v>
       </c>
       <c r="N2" t="n">
-        <v>36.96750933532022</v>
+        <v>0.8247088289406709</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>111.861</v>
+        <v>111.411</v>
       </c>
       <c r="D3" t="n">
-        <v>111.861</v>
+        <v>111.411</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5602912</v>
+        <v>1.56493938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01328216</v>
+        <v>0.0004032900000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43362922</v>
+        <v>0.04468881</v>
       </c>
       <c r="H3" t="n">
-        <v>159.68834131</v>
+        <v>5.112078170000001</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54511574026247</v>
+        <v>20.24381117504535</v>
       </c>
       <c r="J3" t="n">
-        <v>20.54511574026247</v>
+        <v>20.24381117504535</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2781220311679407</v>
+        <v>0.2746311276630839</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004364981465893938</v>
+        <v>4.751982779886764e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3857751479011183</v>
+        <v>0.008309330734852306</v>
       </c>
       <c r="N3" t="n">
-        <v>50.99682913882356</v>
+        <v>1.851909330208276</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.682</v>
+        <v>42.202</v>
       </c>
       <c r="D4" t="n">
-        <v>87.333</v>
+        <v>84.374</v>
       </c>
       <c r="E4" t="n">
-        <v>2.03053143</v>
+        <v>2.11203137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05913336</v>
+        <v>0.00134037</v>
       </c>
       <c r="G4" t="n">
-        <v>1.26306222</v>
+        <v>0.02806220000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>56.55318427</v>
+        <v>1.23351562</v>
       </c>
       <c r="I4" t="n">
-        <v>9.362185990810401</v>
+        <v>9.355999718401595</v>
       </c>
       <c r="J4" t="n">
-        <v>18.71818584910091</v>
+        <v>18.69913853047198</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4642150590878532</v>
+        <v>0.5171385935415701</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01226222736415902</v>
+        <v>0.0001359707731505236</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2686290274461385</v>
+        <v>0.005912061944570307</v>
       </c>
       <c r="N4" t="n">
-        <v>21.46195678839939</v>
+        <v>0.5107474579666893</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>64.23399999999999</v>
+        <v>64.185</v>
       </c>
       <c r="D5" t="n">
-        <v>125.126</v>
+        <v>125.068</v>
       </c>
       <c r="E5" t="n">
-        <v>1.40195204</v>
+        <v>1.39943506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02345232</v>
+        <v>0.00084256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.730662</v>
+        <v>0.02686643</v>
       </c>
       <c r="H5" t="n">
-        <v>47.42466252</v>
+        <v>1.78094903</v>
       </c>
       <c r="I5" t="n">
-        <v>13.47898093057954</v>
+        <v>12.74563557560886</v>
       </c>
       <c r="J5" t="n">
-        <v>24.51197586815394</v>
+        <v>23.19653973021527</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2722870789935233</v>
+        <v>0.2700096485585489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007110010004202515</v>
+        <v>0.0001091410012697252</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1994292735205565</v>
+        <v>0.005545948403907018</v>
       </c>
       <c r="N5" t="n">
-        <v>18.003032351658</v>
+        <v>0.6976701909553732</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>26.534</v>
+        <v>25.863</v>
       </c>
       <c r="D6" t="n">
-        <v>106.043</v>
+        <v>103.36</v>
       </c>
       <c r="E6" t="n">
-        <v>1.71941038</v>
+        <v>1.76239613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08987537000000001</v>
+        <v>0.0027586</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57986558</v>
+        <v>0.0177257</v>
       </c>
       <c r="H6" t="n">
-        <v>16.04977179</v>
+        <v>0.48852123</v>
       </c>
       <c r="I6" t="n">
-        <v>7.052274709523061</v>
+        <v>6.918243497672882</v>
       </c>
       <c r="J6" t="n">
-        <v>28.20167522480687</v>
+        <v>27.65862251449626</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5120787498368684</v>
+        <v>0.5116546991245751</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02422646867472739</v>
+        <v>0.0002923369646502147</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1691694069141915</v>
+        <v>0.004716807987144228</v>
       </c>
       <c r="N6" t="n">
-        <v>7.855137124474721</v>
+        <v>0.2575916055772217</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.772</v>
+        <v>34.198</v>
       </c>
       <c r="D7" t="n">
-        <v>124.646</v>
+        <v>125.683</v>
       </c>
       <c r="E7" t="n">
-        <v>1.41171462</v>
+        <v>1.4016614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04167993</v>
+        <v>0.00177757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34253878</v>
+        <v>0.01510953</v>
       </c>
       <c r="H7" t="n">
-        <v>11.79694189</v>
+        <v>0.53868211</v>
       </c>
       <c r="I7" t="n">
-        <v>7.236876977563485</v>
+        <v>7.516468139578142</v>
       </c>
       <c r="J7" t="n">
-        <v>24.81004276945572</v>
+        <v>25.61934546123031</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2944564138243518</v>
+        <v>0.2915120878691205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01283694598716445</v>
+        <v>0.0002290896706034062</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09894841761271202</v>
+        <v>0.003527867561095318</v>
       </c>
       <c r="N7" t="n">
-        <v>4.939485261636971</v>
+        <v>0.2393767752610564</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17.603</v>
+        <v>17.736</v>
       </c>
       <c r="D8" t="n">
-        <v>105.499</v>
+        <v>106.237</v>
       </c>
       <c r="E8" t="n">
-        <v>1.77558638</v>
+        <v>1.76099322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11697588</v>
+        <v>0.00433683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.33216157</v>
+        <v>0.0127027</v>
       </c>
       <c r="H8" t="n">
-        <v>6.24381025</v>
+        <v>0.24554356</v>
       </c>
       <c r="I8" t="n">
-        <v>5.510876587328077</v>
+        <v>5.563924987026808</v>
       </c>
       <c r="J8" t="n">
-        <v>33.03291044053145</v>
+        <v>33.34160304324754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6032088330422191</v>
+        <v>0.5950308720627353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03576328454080731</v>
+        <v>0.000511768656971349</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1163972933660317</v>
+        <v>0.003893556175232315</v>
       </c>
       <c r="N8" t="n">
-        <v>3.833098956267941</v>
+        <v>0.1530169136507125</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22.021</v>
+        <v>22.335</v>
       </c>
       <c r="D9" t="n">
-        <v>113.203</v>
+        <v>114.255</v>
       </c>
       <c r="E9" t="n">
-        <v>1.55382475</v>
+        <v>1.54139866</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05370543999999999</v>
+        <v>0.00273074</v>
       </c>
       <c r="G9" t="n">
-        <v>0.19160893</v>
+        <v>0.01005951</v>
       </c>
       <c r="H9" t="n">
-        <v>4.31384833</v>
+        <v>0.23449934</v>
       </c>
       <c r="I9" t="n">
-        <v>5.067369854000913</v>
+        <v>5.201906846035868</v>
       </c>
       <c r="J9" t="n">
-        <v>23.00341165888112</v>
+        <v>23.48747829454317</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3122680150703454</v>
+        <v>0.3161308627061897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01713749800420832</v>
+        <v>0.0003877987109832113</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05772261005937939</v>
+        <v>0.002342197461540946</v>
       </c>
       <c r="N9" t="n">
-        <v>1.920355393550123</v>
+        <v>0.1120015352352791</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12.547</v>
+        <v>12.944</v>
       </c>
       <c r="D10" t="n">
-        <v>100.243</v>
+        <v>103.422</v>
       </c>
       <c r="E10" t="n">
-        <v>1.88486099</v>
+        <v>1.84404614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13361642</v>
+        <v>0.005592629999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.20314113</v>
+        <v>0.008965979999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75909081</v>
+        <v>0.12878856</v>
       </c>
       <c r="I10" t="n">
-        <v>4.21563311527018</v>
+        <v>4.454065861962832</v>
       </c>
       <c r="J10" t="n">
-        <v>33.70180652076031</v>
+        <v>35.63913669077948</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6493619992913379</v>
+        <v>0.6722085495871341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04635665570672578</v>
+        <v>0.0005716640472190664</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08173785510263822</v>
+        <v>0.002968582308193681</v>
       </c>
       <c r="N10" t="n">
-        <v>1.904877334205648</v>
+        <v>0.08826241086951397</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16.291</v>
+        <v>16.31</v>
       </c>
       <c r="D11" t="n">
-        <v>101.851</v>
+        <v>102.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73178109</v>
+        <v>1.72702627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06052001</v>
+        <v>0.0034409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.12062729</v>
+        <v>0.006950700000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02756292</v>
+        <v>0.11836115</v>
       </c>
       <c r="I11" t="n">
-        <v>3.815085041499583</v>
+        <v>3.784735687498431</v>
       </c>
       <c r="J11" t="n">
-        <v>21.48069410468896</v>
+        <v>21.30647708951355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3587740429055238</v>
+        <v>0.3563532894379963</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02042427893635342</v>
+        <v>0.0004999090908346227</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04237322676056193</v>
+        <v>0.001647232978812192</v>
       </c>
       <c r="N11" t="n">
-        <v>1.04764165607101</v>
+        <v>0.05358529320835826</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.294</v>
+        <v>10.098</v>
       </c>
       <c r="D12" t="n">
-        <v>92.69799999999999</v>
+        <v>100.786</v>
       </c>
       <c r="E12" t="n">
-        <v>2.08570867</v>
+        <v>1.91720592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14286769</v>
+        <v>0.00719583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12852231</v>
+        <v>0.007192019999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1.31716232</v>
+        <v>0.08168604</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4813336070655</v>
+        <v>3.729920683916524</v>
       </c>
       <c r="J12" t="n">
-        <v>34.75397293309982</v>
+        <v>37.29752417130806</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7756723040525587</v>
+        <v>0.7325737882595844</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05235601116461193</v>
+        <v>0.0007832487406243879</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0569629458522298</v>
+        <v>0.002532487356693378</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9971903187449306</v>
+        <v>0.06092564508109</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>13.064</v>
+        <v>13.192</v>
       </c>
       <c r="D13" t="n">
-        <v>91.355</v>
+        <v>91.884</v>
       </c>
       <c r="E13" t="n">
-        <v>1.93561348</v>
+        <v>1.92569394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06636321000000001</v>
+        <v>0.00409328</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08417903999999998</v>
+        <v>0.005331300000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14681178</v>
+        <v>0.07385673</v>
       </c>
       <c r="I13" t="n">
-        <v>3.636637063157269</v>
+        <v>3.369048305751416</v>
       </c>
       <c r="J13" t="n">
-        <v>19.89439020834169</v>
+        <v>20.13559003322192</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4097245746312349</v>
+        <v>0.4130035035071562</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02491459379118351</v>
+        <v>0.0007117063773548524</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03254535661374008</v>
+        <v>0.001385306964317073</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6719166098999868</v>
+        <v>0.03724574927217798</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
